--- a/ePICreator/data/Calcio_Vitamina D.xlsx
+++ b/ePICreator/data/Calcio_Vitamina D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C75A2DF-82C5-C245-BE6E-072F42CC69E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53293681-4D4E-3E47-B6C3-BE6BB1BE70DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="171">
   <si>
     <t>id</t>
   </si>
@@ -827,7 +827,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -959,6 +959,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC3E88D"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -981,7 +987,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1008,6 +1014,7 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1533,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1569,8 +1576,8 @@
       <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="s">
-        <v>106</v>
+      <c r="C2" s="20">
+        <v>68290</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
@@ -1652,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1715,12 +1722,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="20">
+        <v>68290</v>
+      </c>
       <c r="D2" s="3" t="s">
         <v>57</v>
       </c>

--- a/ePICreator/data/Calcio_Vitamina D.xlsx
+++ b/ePICreator/data/Calcio_Vitamina D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53293681-4D4E-3E47-B6C3-BE6BB1BE70DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8071D911-32E3-CF47-8395-49B5AF015C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="179">
   <si>
     <t>id</t>
   </si>
@@ -614,213 +614,420 @@
         &lt;/div&gt;</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>CALCII CARBONAS [WHO-IP LATIN]</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>lactose monohydrate</t>
+  </si>
+  <si>
+    <t>hydrogenated soybean oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2M91M918C </t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>68290|0xF79CABF272B6A7EEF104DDDA44E82716</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/pmswi|https://www.who-umc.org/phpid</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>MedicinalProduct</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
+    &lt;p&gt;&lt;strong&gt;Leaflet: Information for the user&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;Calcium/Vitamin D&lt;/strong&gt;&lt;strong&gt;3&lt;/strong&gt; &lt;strong&gt;ROVI 1000 mg / 880 IU effervescent tablets&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;Calcium carbonate/cholecalciferol (Vitamin D3)&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;Read this leaflet carefully before you start taking this medicine, as it contains important information for you.&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;-Keep this leaflet. You may need to read it again.&lt;/p&gt;
+    &lt;p&gt;-If you have any questions, ask your doctor or pharmacist.&lt;/p&gt;
+    &lt;p&gt;-This medicine has been prescribed for you only. Do not give it to others, even if they have the same symptoms as you, as it may harm them.&lt;/p&gt;
+    &lt;p&gt;-If you experience any side effects, talk to your doctor or pharmacist, even if they are not listed in this leaflet. See section 4.&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
+    &lt;p&gt;&lt;strong&gt;Contents of the leaflet&lt;/strong&gt;&lt;/p&gt;
+    &lt;ol type="1"&gt;
+        &lt;li&gt;What Calcium/Vitamin D3 ROVI is and what it is used for&lt;/li&gt;
+        &lt;li&gt;What you need to know before you start taking Calcium/Vitamin D3 ROVI&lt;/li&gt;
+        &lt;li&gt;How to take Calcium/Vitamin D3 ROVI&lt;/li&gt;
+        &lt;li&gt;Possible side effects&lt;/li&gt;
+        &lt;li&gt;Storage of Calcium/Vitamin D3 ROVI&lt;/li&gt;
+        &lt;li&gt;Package contents and additional information&lt;/li&gt;
+    &lt;/ol&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
+    &lt;p&gt;Calcium/Vitamin D3 ROVI are effervescent tablets. They are available in packages containing 30 tablets.&lt;/p&gt;
+    &lt;p&gt;This medicine is a combination of calcium and vitamin D, indicated for the correction of combined vitamin D and calcium deficiency in elderly patients, as well as a supplement of vitamin D and calcium as an adjunct to specific therapy for the treatment of osteoporosis in patients with deficiency or at high risk of combined vitamin D and calcium deficiency.&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
+    &lt;p&gt;&lt;strong&gt;Do not take Calcium/Vitamin D&lt;/strong&gt;&lt;strong&gt;3&lt;/strong&gt; &lt;strong&gt;ROVI:&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;div&gt;
+        &lt;ul type="circle"&gt;
+            &lt;li&gt;if you are allergic to the active ingredients or any of the other components of this medicine (listed in section 6),&lt;/li&gt;
+            &lt;li&gt;if you have hypercalcemia (abnormally high levels of calcium in the blood),&lt;/li&gt;
+            &lt;li&gt;if you have hypercalciuria (excessive calcium in the urine),&lt;/li&gt;
+            &lt;li&gt;if you have kidney stones, tissue calcification (deposition of calcium salts in tissues),&lt;/li&gt;
+            &lt;li&gt;if you suffer from chronic kidney disease,&lt;/li&gt;
+            &lt;li&gt;if you have prolonged immobilization accompanied by hypercalciuria and/or hypercalcemia.&lt;/li&gt;
+        &lt;/ul&gt;
+    &lt;/div&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;This medicine contains soybean oil. Do not use it if you are allergic to peanuts or soy.&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;Warnings and precautions:&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;Consult your doctor or pharmacist before starting Calcium/Vitamin D3 ROVI:&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;- if you have renal insufficiency (kidney impairment),&lt;/p&gt;
+    &lt;p&gt;- if you have kidney stones,&lt;/p&gt;
+    &lt;p&gt;- if you suffer from heart disease, sarcoidosis (inflammation affecting lymph nodes, lungs, liver, eyes, skin, and other tissues), or are undergoing treatment with cardiac glycosides (used for heart failure),&lt;/p&gt;
+    &lt;p&gt;- if you are taking other vitamin D products, or are undergoing prolonged or high-dose calcium supplementation. In this case, your doctor may need to conduct regular clinical monitoring. Your doctor will advise on the frequency of these checks.&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;Taking Calcium/Vitamin D&lt;/strong&gt;&lt;strong&gt;3&lt;/strong&gt; &lt;strong&gt;ROVI with other medicines:&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;Inform your doctor or pharmacist if you are using, have recently used, or might use any other medicines. Certain medicines can interact with Calcium/Vitamin D3 ROVI, requiring dose adjustments, interruption, or at least a few hours between administrations.&lt;/p&gt;
+    &lt;p&gt;It is important to inform your doctor if you are taking or have recently taken any of the following medications:&lt;/p&gt;
+    &lt;div&gt;
+        &lt;ul type="circle"&gt;
+            &lt;li&gt;Cardiac glycosides (for heart conditions).&lt;/li&gt;
+            &lt;li&gt;Tetracyclines (certain antibiotics); wait at least 3 hours between doses.&lt;/li&gt;
+            &lt;li&gt;Thiazide diuretics (medications that increase urine output).&lt;/li&gt;
+            &lt;li&gt;Anticonvulsants.&lt;/li&gt;
+            &lt;li&gt;Systemic corticosteroids.&lt;/li&gt;
+            &lt;li&gt;Bisphosphonates and sodium fluoride; wait at least 3 hours between doses.&lt;/li&gt;
+            &lt;li&gt;Barbiturates or phenytoin.&lt;/li&gt;
+        &lt;/ul&gt;
+    &lt;/div&gt;
+    &lt;p&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;Taking Calcium / Vitamin D&lt;/strong&gt;&lt;strong&gt;3&lt;/strong&gt; &lt;strong&gt;ROVI with food and drinks:&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;If taken with foods and drinks containing oxalic acid (found in spinach and rhubarb), phytic acid (found in whole-grain bread and cereals), or phosphorus (found in milk), interactions may occur. Avoid taking this medicine within 2 hours after consuming such foods.&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;Pregnancy and breastfeeding&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;If you are pregnant, breastfeeding, think you may be pregnant, or plan to have a baby, consult your doctor or pharmacist before using this medicine.&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;Due to the vitamin D content (880 IU) of Calcium/Vitamin D3 ROVI, its use is not recommended during pregnancy and breastfeeding, as the recommended daily dose of vitamin D should not exceed 600 IU/day.&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;Driving and using machines:&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;No effects on driving or operating machinery have been reported.&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;Calcium/Vitamin D&lt;/strong&gt;&lt;strong&gt;3&lt;/strong&gt; &lt;strong&gt;ROVI contains sucrose, sodium, lactose, and glucose.&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;This medicine contains sucrose. If your doctor has told you that you have an intolerance to certain sugars, consult them before taking this medicine. It may cause cavities.&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;This medicine contains 96.15 mg of sodium (a main component of table salt) per tablet. This is equivalent to 4.8% of the maximum recommended daily intake of sodium for an adult.&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;This medicine contains lactose. If your doctor has told you that you have an intolerance to certain sugars, consult them before taking this medicine.&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;This medicine contains glucose (in maltodextrin derived from corn). If your doctor has told you that you have an intolerance to certain sugars, consult them before taking this medicine.&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
+    &lt;p&gt;Follow the administration instructions for this medicine as indicated by your doctor or pharmacist. If in doubt, consult your doctor or pharmacist again.&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;&lt;span style="text-decoration: underline;"&gt;Dosage&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;em&gt;Adults&lt;/em&gt;&lt;/p&gt;
+    &lt;p&gt;The recommended dose is 1 effervescent tablet (1000 mg of calcium and 880 IU of Vitamin D3) per day.&lt;/p&gt;
+    &lt;p&gt;&lt;em&gt;&amp;nbsp;&lt;/em&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span style="text-decoration: underline;"&gt;Method and route of administration&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;This medicine is administered orally.&lt;/p&gt;
+    &lt;p&gt;Dissolve the tablet in a glass of water and drink immediately.&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;&lt;span style="text-decoration: underline;"&gt;Duration of treatment&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;Your doctor will indicate the duration of your treatment with Calcium/Vitamin D3 ROVI. Do not stop treatment earlier.&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;Follow these instructions unless your doctor gives you different directions. In such cases, it is advisable to request written instructions from the doctor and ensure you fully understand them.&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;If you think the effect of Calcium/Vitamin D3 ROVI is too strong or too weak, inform your doctor or pharmacist.&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;Remember to take your medicine.&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;If you take more Calcium/Vitamin D&lt;/strong&gt;&lt;strong&gt;3&lt;/strong&gt; &lt;strong&gt;ROVI than you should&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;If you take more Calcium/Vitamin D3 ROVI than you should, or in case of overdose or accidental ingestion, immediately consult your doctor or pharmacist or call the Toxicology Information Service at 91.562.04.20, indicating the medicine and the amount ingested.&lt;/p&gt;
+    &lt;p&gt;Overdose can cause hypervitaminosis D (excess vitamin D) and hypercalcemia (abnormally high levels of calcium in the blood). Symptoms of overdose include nausea, vomiting, anorexia (eating disorder), abdominal pain, dry mouth, or polyuria (increased urine output), or irritability, lethargy (excessive fatigue), stupor (decreased response to stimuli), and coma (loss of consciousness) in severe cases.&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;If you forgot to take Calcium/Vitamin D&lt;/strong&gt;&lt;strong&gt;3&lt;/strong&gt; &lt;strong&gt;ROVI&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;Do not take a double dose to make up for missed doses.&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;If you stop taking Calcium/Vitamin D&lt;/strong&gt;&lt;strong&gt;3&lt;/strong&gt; &lt;strong&gt;ROVI&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;If you have any further questions about the use of this medicine, ask your doctor or pharmacist.&lt;/p&gt;     
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
+    &lt;p&gt;Like all medicines, this medicine can cause side effects, although not everyone will experience them.&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;-Uncommon&lt;/strong&gt; (may affect between 1 and 10 in 1,000 patients):&lt;/p&gt;
+    &lt;ul type="disc"&gt;
+        &lt;li&gt;high calcium levels in the blood (hypercalcemia),&lt;/li&gt;
+        &lt;li&gt;high calcium levels in the urine (hypercalciuria).&lt;/li&gt;
+    &lt;/ul&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;-Rare&lt;/strong&gt; (may affect between 1 and 10 in 10,000 patients):&lt;/p&gt;
+    &lt;ul type="disc"&gt;
+        &lt;li&gt;constipation,&lt;/li&gt;
+        &lt;li&gt;flatulence,&lt;/li&gt;
+        &lt;li&gt;nausea,&lt;/li&gt;
+        &lt;li&gt;epigastric pain,&lt;/li&gt;
+        &lt;li&gt;diarrhea.&lt;/li&gt;
+    &lt;/ul&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;-&lt;strong&gt;Very rare&lt;/strong&gt; (may affect fewer than 1 in 10,000 patients):&lt;/p&gt;
+    &lt;ul type="disc"&gt;
+        &lt;li&gt;itching (pruritus),&lt;/li&gt;
+        &lt;li&gt;skin rash (exanthema),&lt;/li&gt;
+        &lt;li&gt;hives (urticaria).&lt;/li&gt;
+    &lt;/ul&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;Reporting of side effects&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;If you experience any side effects, talk to your doctor or pharmacist, even if they are possible side effects not listed in this leaflet. You can also report them directly through the Spanish Pharmacovigilance System for Medicines for Human Use: &lt;a href="https://www.notificaram.es"&gt;https://www.notificaram.es&lt;/a&gt;. By reporting side effects, you can help provide more information on the safety of this medicine.&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
+    &lt;p&gt;Keep this medicine out of the sight and reach of children.&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;Store in the original package to protect it from moisture.&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;Do not use this medicine after the expiry date stated on the package after EXP. The expiry date refers to the last day of that month.&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;Medicines should not be disposed of via wastewater or household waste. Take unused packaging and medicines to the SIGRE Point at the pharmacy. If in doubt, ask your pharmacist how to dispose of unused packaging and medicines. This will help protect the environment.&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
+    &lt;p&gt;&lt;strong&gt;Composition of Calcium/Vitamin D&lt;/strong&gt;&lt;strong&gt;3&lt;/strong&gt; &lt;strong&gt;ROVI&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;-The active ingredients are: calcium carbonate and concentrated cholecalciferol (in powder form). Each tablet contains 2500 mg of calcium carbonate (equivalent to 1,000 mg of calcium) and 22 micrograms of concentrated cholecalciferol in powder form (equivalent to 880 IU of cholecalciferol = vitamin D3).&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;-The other components (excipients) are: anhydrous citric acid, sodium bicarbonate, lactose monohydrate, povidone, sodium saccharin, sodium cyclamate, macrogol 6000, orange flavor (contains maltodextrin derived from corn), simethicone emulsion, ?-tocopherol, hydrogenated soybean oil, gelatin, sucrose, and gluten-free corn starch.&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;Product appearance and package contents&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;Cylindrical effervescent tablets, white or whitish in color.&lt;/p&gt;
+    &lt;p&gt;They are presented in polypropylene tubes, each containing 15 effervescent tablets. Each package contains two tubes (30 effervescent tablets).&lt;/p&gt;
+    &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;Marketing authorization holder&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;Laboratorios Farmacéuticos ROVI, S.A.&lt;/p&gt;
+    &lt;p&gt;C/ Julián Camarillo, 35&lt;/p&gt;
+    &lt;p&gt;28037 - Madrid&lt;/p&gt;
+    &lt;p&gt;Spain&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;em&gt;&amp;nbsp;&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;Manufacturer:&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;Laboratorios Losan Pharma GMBH&lt;/p&gt;
+    &lt;p&gt;Otto-Hahn-Strasse 13&lt;/p&gt;
+    &lt;p&gt;79395 - Neuenburg&lt;/p&gt;
+    &lt;p&gt;Germany&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;em&gt;&amp;nbsp;&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;Date of the last revision of this leaflet:&lt;/strong&gt; July 2019&lt;/p&gt;
+    &lt;p&gt;Detailed information about this medicine is available on the website of the Spanish Agency of Medicines and Medical Devices (AEMPS) (&lt;a href="https://www.aemps.gob.es/"&gt;&lt;span style="text-decoration: underline;"&gt;https://www.aemps.gob.es/&lt;/span&gt;&lt;/a&gt;)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
     <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt;  &lt;p&gt;&lt;strong&gt;No tome Calcio/Vitamina D&lt;/strong&gt;&lt;strong&gt;3&lt;/strong&gt; &lt;strong&gt;ROVI:&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
 &lt;div&gt;
-&lt;ul type="circle"&gt;
-&lt;li&gt;si es al&amp;eacute;rgico a los principios activos o a alguno de los dem&amp;aacute;s componentes de este medicamento (incluidos en la secci&amp;oacute;n 6),&lt;/li&gt;
+&lt;ul&gt;
+&lt;li&gt;si es alérgico a los principios activos o a alguno de los demás componentes de este medicamento (incluidos en la sección 6),&lt;/li&gt;
 &lt;li&gt;si usted presenta hipercalcemia (nivel de calcio anormalmente elevado en sangre),&lt;/li&gt;
-&lt;li&gt;si usted presenta hipercalciuria (eliminaci&amp;oacute;n exagerada de calcio en orina),&lt;/li&gt;
-&lt;li&gt;si usted tiene litiasis c&amp;aacute;lcica (c&amp;aacute;lculos en ri&amp;ntilde;ones), calcificaci&amp;oacute;n tisular (dep&amp;oacute;sito de sales de calcio en los tejidos),&lt;/li&gt;
-&lt;li&gt;si usted padece una enfermedad cr&amp;oacute;nica del ri&amp;ntilde;&amp;oacute;n,&lt;/li&gt;
-&lt;li&gt;si usted presenta inmovilizaci&amp;oacute;n prolongada acompa&amp;ntilde;ada por hipercalciuria y/o hipercalcemia.&lt;/li&gt;
+&lt;li&gt;si usted presenta hipercalciuria (eliminación exagerada de calcio en orina),&lt;/li&gt;
+&lt;li&gt;si usted tiene litiasis cálcica (cálculos en riñones), calcificación tisular (depósito de sales de calcio en los tejidos),&lt;/li&gt;
+&lt;li&gt;si usted padece una enfermedad crónica del riñón,&lt;/li&gt;
+&lt;li&gt;si usted presenta inmovilización prolongada acompañada por hipercalciuria y/o hipercalcemia.&lt;/li&gt;
 &lt;/ul&gt;
 &lt;/div&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
 &lt;p&gt;Este medicamento contiene aceite de soja. No debe utilizarse en caso de alergia al cacahuete o a la soja.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Advertencias y precauciones:&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Consulte a su m&amp;eacute;dico o farmac&amp;eacute;utico antes de empezar a tomar Calcio/Vitamina D3 ROVI:&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;- si tiene insuficiencia renal (incapacidad del ri&amp;ntilde;&amp;oacute;n para realizar correctamente su funci&amp;oacute;n),&lt;/p&gt;
-&lt;p&gt;- si tiene c&amp;aacute;lculos en el ri&amp;ntilde;&amp;oacute;n,&lt;/p&gt;
-&lt;p&gt;- si padece una enfermedad del coraz&amp;oacute;n, sarcoidosis (inflamaci&amp;oacute;n a nivel de los ganglios linf&amp;aacute;ticos, los pulmones, el h&amp;iacute;gado, los ojos, la piel y otros tejidos), o se encuentra en tratamiento con gluc&amp;oacute;sidos card&amp;iacute;acos (medicamentos utilizados cuando existe una incapacidad del coraz&amp;oacute;n para realizar correctamente su funci&amp;oacute;n),&lt;/p&gt;
-&lt;p&gt;- si recibe un tratamiento conjunto con otros productos con vitamina D, o est&amp;aacute; sometido a un tratamiento prolongado o con dosis elevadas de suplementos de calcio. En este caso es posible que su m&amp;eacute;dico deba efectuar controles cl&amp;iacute;nicos de forma regular. Su m&amp;eacute;dico le indicar&amp;aacute; la frecuencia de estos controles.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Consulte a su médico o farmacéutico antes de empezar a tomar Calcio/Vitamina D3 ROVI:&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;- si tiene insuficiencia renal (incapacidad del riñón para realizar correctamente su función),&lt;/p&gt;
+&lt;p&gt;- si tiene cálculos en el riñón,&lt;/p&gt;
+&lt;p&gt;- si padece una enfermedad del corazón, sarcoidosis (inflamación a nivel de los ganglios linfáticos, los pulmones, el hígado, los ojos, la piel y otros tejidos), o se encuentra en tratamiento con glucósidos cardíacos (medicamentos utilizados cuando existe una incapacidad del corazón para realizar correctamente su función),&lt;/p&gt;
+&lt;p&gt;- si recibe un tratamiento conjunto con otros productos con vitamina D, o está sometido a un tratamiento prolongado o con dosis elevadas de suplementos de calcio. En este caso es posible que su médico deba efectuar controles clínicos de forma regular. Su médico le indicará la frecuencia de estos controles.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Toma de Calcio/Vitamina D&lt;/strong&gt;&lt;strong&gt;3&lt;/strong&gt; &lt;strong&gt;ROVI con otros medicamentos:&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Informe a su m&amp;eacute;dico o farmac&amp;eacute;utico si est&amp;aacute; utilizando, ha utilizado recientemente o pudiera tener que utilizar cualquier otro medicamento. Ciertos medicamentos pueden interferir con Calcio/Vitamina D3 ROVI; en estos casos puede ser necesario cambiar la dosis, interrumpir el tratamiento con alguno de ellos o esperar al menos&amp;nbsp; unas horas entre la administraci&amp;oacute;n de ambos.&lt;/p&gt;
-&lt;p&gt;Es importante que informe a su m&amp;eacute;dico si est&amp;aacute; tomando o ha tomado recientemente alguno de los siguientes medicamentos:&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Informe a su médico o farmacéutico si está utilizando, ha utilizado recientemente o pudiera tener que utilizar cualquier otro medicamento. Ciertos medicamentos pueden interferir con Calcio/Vitamina D3 ROVI; en estos casos puede ser necesario cambiar la dosis, interrumpir el tratamiento con alguno de ellos o esperar al menos unas horas entre la administración de ambos.&lt;/p&gt;
+&lt;p&gt;Es importante que informe a su médico si está tomando o ha tomado recientemente alguno de los siguientes medicamentos:&lt;/p&gt;
 &lt;div&gt;
-&lt;ul type="circle"&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Gluc&amp;oacute;sidos card&amp;iacute;acos (medicamentos para el coraz&amp;oacute;n).&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Tetraciclinas (ciertos antibi&amp;oacute;ticos), esperar un intervalo de al menos 3 horas.&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Diur&amp;eacute;ticos tiaz&amp;iacute;dicos (medicamentos que aumentan la eliminaci&amp;oacute;n de orina).&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Anticonvulsivantes.&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Corticosteroides sist&amp;eacute;micos.&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Bifosfonatos y fluoruro s&amp;oacute;dico, esperar un intervalo de 3 horas.&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Barbit&amp;uacute;ricos o fenito&amp;iacute;na.&lt;/li&gt;
+&lt;ul&gt;
+&lt;li&gt; Glucósidos cardíacos (medicamentos para el corazón).&lt;/li&gt;
+&lt;li&gt; Tetraciclinas (ciertos antibióticos), esperar un intervalo de al menos 3 horas.&lt;/li&gt;
+&lt;li&gt; Diuréticos tiazídicos (medicamentos que aumentan la eliminación de orina).&lt;/li&gt;
+&lt;li&gt; Anticonvulsivantes.&lt;/li&gt;
+&lt;li&gt; Corticosteroides sistémicos.&lt;/li&gt;
+&lt;li&gt; Bifosfonatos y fluoruro sódico, esperar un intervalo de 3 horas.&lt;/li&gt;
+&lt;li&gt; Barbitúricos o fenitoína.&lt;/li&gt;
 &lt;/ul&gt;
 &lt;/div&gt;
-&lt;p&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Toma de Calcio / Vitamina D&lt;/strong&gt;&lt;strong&gt;3&lt;/strong&gt; &lt;strong&gt;ROVI con alimentos y, bebidas:&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Si toma este medicamento juntamente con alimentos y bebidas que contengan &amp;aacute;cido ox&amp;aacute;lico (un compuesto presente en espinacas y ruibarbos) o &amp;aacute;cido f&amp;iacute;tico (presente en el pan integral y cereales) y el f&amp;oacute;sforo que se encuentra en la leche pueden producirse interacciones, por lo que se aconseja no tomar este medicamento durante las 2 horas siguientes despu&amp;eacute;s de haber tomado este tipo de alimentos.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Si toma este medicamento juntamente con alimentos y bebidas que contengan ácido oxálico (un compuesto presente en espinacas y ruibarbos) o ácido fítico (presente en el pan integral y cereales) y el fósforo que se encuentra en la leche pueden producirse interacciones, por lo que se aconseja no tomar este medicamento durante las 2 horas siguientes después de haber tomado este tipo de alimentos.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Embarazo y lactancia&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Si est&amp;aacute; embarazada o en periodo de lactancia, cree que podr&amp;iacute;a estar embarazada o tiene intenci&amp;oacute;n de quedarse embarazada, consulte a su m&amp;eacute;dico o farmac&amp;eacute;utico antes de utilizar este medicamento.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Debido al contenido en vitamina D (880 UI) de Calcio/Vitamina D3 ROVI, no est&amp;aacute; indicado su uso durante el embarazo y la lactancia, ya que la dosis diaria recomendada de vitamina D no debe superar las 600 UI/d&amp;iacute;a.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Conducci&amp;oacute;n y uso de m&amp;aacute;quinas:&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;No se han descrito efectos sobre la conducci&amp;oacute;n o uso de m&amp;aacute;quinas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Si está embarazada o en periodo de lactancia, cree que podría estar embarazada o tiene intención de quedarse embarazada, consulte a su médico o farmacéutico antes de utilizar este medicamento.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Debido al contenido en vitamina D (880 UI) de Calcio/Vitamina D3 ROVI, no está indicado su uso durante el embarazo y la lactancia, ya que la dosis diaria recomendada de vitamina D no debe superar las 600 UI/día.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Conducción y uso de máquinas:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;No se han descrito efectos sobre la conducción o uso de máquinas.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Calcio/Vitamina D&lt;/strong&gt;&lt;strong&gt;3&lt;/strong&gt; &lt;strong&gt;ROVI contiene sacarosa, sodio, lactosa y glucosa.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Este medicamento contiene sacarosa. Si su m&amp;eacute;dico le ha indicado que padece una intolerancia a ciertos az&amp;uacute;cares, consulte con &amp;eacute;l antes de tomar este medicamento. Puede producir caries.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Este medicamento contiene 96,15 mg de sodio (componente principal de la sal de mesa/para cocinar) en cada comprimido. Esto equivale al 4,8 % de la ingesta diaria m&amp;aacute;xima de sodio recomendada para un adulto.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Este medicamento contiene lactosa. Si su m&amp;eacute;dico le ha indicado que padece una intolerancia a ciertos az&amp;uacute;cares, consulte con &amp;eacute;l antes de tomar este medicamento.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Este medicamento contiene glucosa (en maltodextrina procedente de ma&amp;iacute;z). Si su m&amp;eacute;dico le ha indicado que padece una intolerancia a ciertos az&amp;uacute;cares, consulte con &amp;eacute;l antes de tomar este medicamento.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Este medicamento contiene sacarosa. Si su médico le ha indicado que padece una intolerancia a ciertos azúcares, consulte con él antes de tomar este medicamento. Puede producir caries.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Este medicamento contiene 96,15 mg de sodio (componente principal de la sal de mesa/para cocinar) en cada comprimido. Esto equivale al 4,8 % de la ingesta diaria máxima de sodio recomendada para un adulto.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Este medicamento contiene lactosa. Si su médico le ha indicado que padece una intolerancia a ciertos azúcares, consulte con él antes de tomar este medicamento.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Este medicamento contiene glucosa (en maltodextrina procedente de maíz). Si su médico le ha indicado que padece una intolerancia a ciertos azúcares, consulte con él antes de tomar este medicamento.&lt;/p&gt;
         &lt;/div&gt;</t>
   </si>
   <si>
     <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
-            &lt;p&gt;Siga exactamente las instrucciones de administraci&amp;oacute;n de este medicamento&amp;nbsp; indicadas por su m&amp;eacute;dico o farmac&amp;eacute;utico. En caso de duda, consulte de nuevo a su m&amp;eacute;dico o farmac&amp;eacute;utico.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;span style="text-decoration: underline;"&gt;Dosis&lt;/span&gt;&lt;/p&gt;
+            &lt;p&gt;Siga exactamente las instrucciones de administración de este medicamento indicadas por su médico o farmacéutico. En caso de duda, consulte de nuevo a su médico o farmacéutico.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span&gt;Dosis&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;&lt;em&gt;Adultos&lt;/em&gt;&lt;/p&gt;
-&lt;p&gt;La dosis recomendada es de 1 comprimido efervescente (1000 mg de calcio y 880 UI de Vitamina D3) al d&amp;iacute;a.&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;&amp;nbsp;&lt;/em&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="text-decoration: underline;"&gt;Forma y v&amp;iacute;a de administraci&amp;oacute;n&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;Este medicamento se administra por v&amp;iacute;a oral.&lt;/p&gt;
+&lt;p&gt;La dosis recomendada es de 1 comprimido efervescente (1000 mg de calcio y 880 UI de Vitamina D3) al día.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span&gt;Forma y vía de administración&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Este medicamento se administra por vía oral.&lt;/p&gt;
 &lt;p&gt;Disolver el comprimido en un vaso de agua y beber inmediatamente.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;span style="text-decoration: underline;"&gt;Duraci&amp;oacute;n del tratamiento&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;Su m&amp;eacute;dico le indicar&amp;aacute; la duraci&amp;oacute;n de su tratamiento con Calcio / Vitamina D3 ROVI. No suspenda antes el tratamiento.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Siga estas instrucciones a menos que su m&amp;eacute;dico le haya dado otras indicaciones distintas. En estos casos es conveniente solicitar al m&amp;eacute;dico las instrucciones por escrito y asegurarse de haberlas entendido bien.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Si estima que la acci&amp;oacute;n de Calcio/Vitamina D3 ROVI es demasiado fuerte o d&amp;eacute;bil, comun&amp;iacute;queselo a su m&amp;eacute;dico o farmac&amp;eacute;utico.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span&gt;Duración del tratamiento&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Su médico le indicará la duración de su tratamiento con Calcio / Vitamina D3 ROVI. No suspenda antes el tratamiento.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Siga estas instrucciones a menos que su médico le haya dado otras indicaciones distintas. En estos casos es conveniente solicitar al médico las instrucciones por escrito y asegurarse de haberlas entendido bien.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Si estima que la acción de Calcio/Vitamina D3 ROVI es demasiado fuerte o débil, comuníqueselo a su médico o farmacéutico.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
 &lt;p&gt;Recuerde tomar su medicamento.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Si toma m&amp;aacute;s Calcio/Vitamina D&lt;/strong&gt;&lt;strong&gt;3&lt;/strong&gt; &lt;strong&gt;ROVI del&amp;nbsp; que debe&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Si&amp;nbsp; toma m&amp;aacute;s Calcio/Vitamina D3 ROVI del que debe, o en caso de sobredosis o ingesti&amp;oacute;n accidental, consulte inmediatamente a su m&amp;eacute;dico o farmac&amp;eacute;utico o llame al Servicio de Informaci&amp;oacute;n Toxicol&amp;oacute;gica, tel&amp;eacute;fono: 91.562.04.20, indicando el medicamento y la cantidad ingerida.&lt;/p&gt;
-&lt;p&gt;La sobredosis puede provocar hipervitaminosis D (exceso de vitamina D) e hipercalcemia (nivel de calcio anormalmente elevado en sangre). Los s&amp;iacute;ntomas en caso de sobredosis son: n&amp;aacute;useas, v&amp;oacute;mitos, anorexia (trastorno de la alimentaci&amp;oacute;n), dolor en el abdomen, sequedad de boca o poliuria (aumento del volumen de orina eliminado), o bien, irritabilidad, letargia (cansancio excesivo), estupor (disminuci&amp;oacute;n de la respuesta a los est&amp;iacute;mulos) y coma (p&amp;eacute;rdida de la conciencia) en casos severos.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Si olvid&amp;oacute; tomar Calcio/Vitamina D&lt;/strong&gt;&lt;strong&gt;3&lt;/strong&gt; &lt;strong&gt;ROVI&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Si toma más Calcio/Vitamina D&lt;/strong&gt;&lt;strong&gt;3&lt;/strong&gt; &lt;strong&gt;ROVI del que debe&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Si toma más Calcio/Vitamina D3 ROVI del que debe, o en caso de sobredosis o ingestión accidental, consulte inmediatamente a su médico o farmacéutico o llame al Servicio de Información Toxicológica, teléfono: 91.562.04.20, indicando el medicamento y la cantidad ingerida.&lt;/p&gt;
+&lt;p&gt;La sobredosis puede provocar hipervitaminosis D (exceso de vitamina D) e hipercalcemia (nivel de calcio anormalmente elevado en sangre). Los síntomas en caso de sobredosis son: náuseas, vómitos, anorexia (trastorno de la alimentación), dolor en el abdomen, sequedad de boca o poliuria (aumento del volumen de orina eliminado), o bien, irritabilidad, letargia (cansancio excesivo), estupor (disminución de la respuesta a los estímulos) y coma (pérdida de la conciencia) en casos severos.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Si olvidó tomar Calcio/Vitamina D&lt;/strong&gt;&lt;strong&gt;3&lt;/strong&gt; &lt;strong&gt;ROVI&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
 &lt;p&gt;No tome una dosis doble para compensar las dosis olvidadas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Si interrumpe el tratamiento con Calcio/Vitamina D&lt;/strong&gt;&lt;strong&gt;3&lt;/strong&gt; &lt;strong&gt;ROVI&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Si tiene cualquier otra duda sobre el uso de este medicamento, pregunte a su m&amp;eacute;dico o farmac&amp;eacute;utico.&lt;/p&gt;     
+&lt;p&gt;&lt;strong&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Si tiene cualquier otra duda sobre el uso de este medicamento, pregunte a su médico o farmacéutico.&lt;/p&gt;     
         &lt;/div&gt;</t>
   </si>
   <si>
     <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
            &lt;p&gt;Al igual que todos los medicamentos, este medicamento puede producir efectos adversos, aunque no todas las personas los sufran.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;-Poco frecuente&lt;/strong&gt;s (pueden afectar a entre 1 y 10 de cada 1.000 pacientes ):&lt;/p&gt;
-&lt;ul type="disc"&gt;
+&lt;ul&gt;
 &lt;li&gt;niveles altos de calcio en sangre hipercalcemia,&lt;/li&gt;
 &lt;li&gt;niveles altos de calcio en orina hipercalciuria.&lt;/li&gt;
 &lt;/ul&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;-Raros&lt;/strong&gt; (pueden afectar a entre 1 y 10 de cada 10.000 pacientes ):&lt;/p&gt;
-&lt;ul type="disc"&gt;
-&lt;li&gt;estre&amp;ntilde;imiento,&lt;/li&gt;
+&lt;ul&gt;
+&lt;li&gt;estreñimiento,&lt;/li&gt;
 &lt;li&gt;flatulencia,&lt;/li&gt;
-&lt;li&gt;n&amp;aacute;useas,&lt;/li&gt;
-&lt;li&gt;dolor epig&amp;aacute;strico,&amp;nbsp;&lt;/li&gt;
+&lt;li&gt;náuseas,&lt;/li&gt;
+&lt;li&gt;dolor epigástrico,&lt;/li&gt;
 &lt;li&gt;diarrea.&lt;/li&gt;
 &lt;/ul&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
 &lt;p&gt;-&lt;strong&gt;Muy raros&lt;/strong&gt; (pueden afectar a menos de 1 de cada 10.000 pacientes):):&lt;/p&gt;
-&lt;ul type="disc"&gt;
+&lt;ul&gt;
 &lt;li&gt;picor (prurito),&lt;/li&gt;
-&lt;li&gt;erupci&amp;oacute;n de la piel (exantema),&lt;/li&gt;
+&lt;li&gt;erupción de la piel (exantema),&lt;/li&gt;
 &lt;li&gt;ronchas (urticaria).&lt;/li&gt;
 &lt;/ul&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Comunicaci&amp;oacute;n de efectos adversos&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Si experimenta cualquier tipo de efecto adverso, consulte a su m&amp;eacute;dico o farmac&amp;eacute;utico, incluso si se trata de posibles efectos adversos que no aparecen en este prospecto. Tambi&amp;eacute;n puede comunicarlos directamente a trav&amp;eacute;s Sistema Espa&amp;ntilde;ol de Farmacovigilancia de Medicamentos de Uso Humano: &lt;a href="https://www.notificaram.es"&gt;https://www.notificaram.es&lt;/a&gt;. Mediante la comunicaci&amp;oacute;n de efectos adversos usted puede contribuir a proporcionar m&amp;aacute;s informaci&amp;oacute;n sobre la seguridad de este medicamento.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Comunicación de efectos adversos&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Si experimenta cualquier tipo de efecto adverso, consulte a su médico o farmacéutico, incluso si se trata de posibles efectos adversos que no aparecen en este prospecto. También puede comunicarlos directamente a través Sistema Español de Farmacovigilancia de Medicamentos de Uso Humano: &lt;a href="https://www.notificaram.es"&gt;https://www.notificaram.es&lt;/a&gt;. Mediante la comunicación de efectos adversos usted puede contribuir a proporcionar más información sobre la seguridad de este medicamento.&lt;/p&gt;
         &lt;/div&gt;</t>
   </si>
   <si>
     <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
-           &lt;p&gt;&lt;strong&gt;Composici&amp;oacute;n de Calcio/Vitamina D&lt;/strong&gt;&lt;strong&gt;3&lt;/strong&gt; &lt;strong&gt;ROVI&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+           &lt;p&gt;Mantener este medicamento fuera de la vista y del alcance de los niños.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Conservar en el envase original para protegerlo de la humedad.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;No utilice este medicamento después de la fecha de caducidad que aparece en el envase después de CAD. La fecha de caducidad es el último día del mes que se indica.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Los medicamentos no se deben tirar por los desagües ni a la basura. Deposite los envases y los medicamentos que no necesita en el Punto SIGRE  de la farmacia. En caso de duda pregunte a su farmacéutico cómo deshacerse de los envases y de los medicamentos que no necesita. De esta forma, ayudará a proteger el medio ambiente&lt;/p&gt;
+        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
+           &lt;p&gt;&lt;strong&gt;Composición de Calcio/Vitamina D&lt;/strong&gt;&lt;strong&gt;3&lt;/strong&gt; &lt;strong&gt;ROVI&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;-Los principios activos son: carbonato de calcio y concentrado de colecalciferol (en forma de polvo). Cada comprimido contiene 2500 mg de carbonato de calcio (equivalente a 1.000 mg de calcio) y 22 microgramos de concentrado de colecalciferol en forma de polvo (equivalente a 880 UI de colecalciferol = vitamina D3).&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;-Los dem&amp;aacute;s componentes (excipientes) son: &amp;aacute;cido c&amp;iacute;trico anhidro, bicarbonato de sodio, lactosa monohidratada, povidona, sacarina s&amp;oacute;dica, ciclamato de sodio, macrogol 6000, aroma de naranja (contiene maltodextrina procedente de ma&amp;iacute;z), emulsi&amp;oacute;n de simeticona, ?-tocoferol, aceite de soja hidrogenado, gelatina, sacarosa y almid&amp;oacute;n de ma&amp;iacute;z sin gluten.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;-Los demás componentes (excipientes) son: ácido cítrico anhidro, bicarbonato de sodio, lactosa monohidratada, povidona, sacarina sódica, ciclamato de sodio, macrogol 6000, aroma de naranja (contiene maltodextrina procedente de maíz), emulsión de simeticona, ?-tocoferol, aceite de soja hidrogenado, gelatina, sacarosa y almidón de maíz sin gluten.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Aspecto del producto y contenido del envase&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Comprimidos efervescentes cil&amp;iacute;ndricos, de color blanco o blanquecino.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Comprimidos efervescentes cilíndricos, de color blanco o blanquecino.&lt;/p&gt;
 &lt;p&gt;Se presentan en tubos de polipropileno, que contienen 15 comprimidos efervescentes cada uno. Cada envase contiene dos tubos (30 comprimidos efervescentes).&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Titular de la autorizaci&amp;oacute;n de comercializaci&amp;oacute;n&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Laboratorios Farmac&amp;eacute;uticos ROVI, S.A.&lt;/p&gt;
-&lt;p&gt;C/ Juli&amp;aacute;n Camarillo, 35&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Titular de la autorización de comercialización&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Laboratorios Farmacéuticos ROVI, S.A.&lt;/p&gt;
+&lt;p&gt;C/ Julián Camarillo, 35&lt;/p&gt;
 &lt;p&gt;28037 - Madrid&lt;/p&gt;
-&lt;p&gt;Espa&amp;ntilde;a&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&lt;em&gt;&amp;nbsp;&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Responsable de la fabricaci&amp;oacute;n:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;España&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;em&gt;&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Responsable de la fabricación:&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;Laboratorios Losan Pharma GMBH&lt;/p&gt;
 &lt;p&gt;Otto-Hahn-Strasse 13&lt;/p&gt;
 &lt;p&gt;79395 - Neuenburg&lt;/p&gt;
 &lt;p&gt;Alemania&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&lt;em&gt;&amp;nbsp;&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Fecha de la &amp;uacute;ltima revisi&amp;oacute;n de este prospecto:&lt;/strong&gt; julio 2019&lt;/p&gt;
-&lt;p&gt;La informaci&amp;oacute;n detallada de este medicamento est&amp;aacute; disponible en la p&amp;aacute;gina web de la Agencia Espa&amp;ntilde;ola de Medicamentos y Productos Sanitarios (AEMPS) (&lt;a href="https://www.aemps.gob.es/"&gt;&lt;span style="text-decoration: underline;"&gt;https://www.aemps.gob.es/&lt;/span&gt;&lt;/a&gt;)&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;em&gt;&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Fecha de la última revisión de este prospecto:&lt;/strong&gt; julio 2019&lt;/p&gt;
+&lt;p&gt;La información detallada de este medicamento está disponible en la página web de la Agencia Española de Medicamentos y Productos Sanitarios (AEMPS) (&lt;a href="https://www.aemps.gob.es/"&gt;&lt;span&gt;https://www.aemps.gob.es/&lt;/span&gt;&lt;/a&gt;)&lt;/p&gt;
         &lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>CALCII CARBONAS [WHO-IP LATIN]</t>
-  </si>
-  <si>
-    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
-           &lt;p&gt;Mantener este medicamento fuera de la vista y del alcance de los ni&amp;ntilde;os.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Conservar en el envase original para protegerlo de la humedad.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;No utilice este medicamento despu&amp;eacute;s de la fecha de caducidad que aparece en el envase despu&amp;eacute;s de CAD. La fecha de caducidad es el &amp;uacute;ltimo d&amp;iacute;a del mes que se indica.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Los medicamentos no se deben tirar por los desag&amp;uuml;es ni a la basura. Deposite los envases y los medicamentos que no necesita en el Punto SIGRE  de la farmacia. En caso de duda pregunte a su farmac&amp;eacute;utico c&amp;oacute;mo deshacerse de los envases y de los medicamentos que no necesita. De esta forma, ayudar&amp;aacute; a proteger el medio ambiente&lt;/p&gt;
-        &lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>ug</t>
-  </si>
-  <si>
-    <t>lactose monohydrate</t>
-  </si>
-  <si>
-    <t>hydrogenated soybean oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2M91M918C </t>
-  </si>
-  <si>
-    <t>es</t>
-  </si>
-  <si>
-    <t>68290|0xF79CABF272B6A7EEF104DDDA44E82716</t>
-  </si>
-  <si>
-    <t>https://spor.ema.europa.eu/pmswi|https://www.who-umc.org/phpid</t>
-  </si>
-  <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>MedicinalProduct</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1725,7 @@
         <v>150</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K2" t="s">
         <v>44</v>
@@ -1538,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1586,11 +1793,29 @@
         <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="20">
+        <v>68290</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1657,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1737,7 +1962,7 @@
         <v>59</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="6" t="s">
@@ -1750,23 +1975,65 @@
         <v>153</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>157</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="20">
+        <v>68290</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1891,7 +2158,7 @@
         <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1926,7 +2193,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
         <v>122</v>
@@ -1984,10 +2251,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -2286,10 +2553,10 @@
         <v>139</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
         <v>140</v>
@@ -2568,10 +2835,10 @@
         <v>147</v>
       </c>
       <c r="N2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2625,7 +2892,7 @@
         <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.2">
@@ -2658,7 +2925,7 @@
         <v>103</v>
       </c>
       <c r="K2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.2">
